--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>47.11754960074666</v>
+        <v>3.175831977197</v>
       </c>
       <c r="R2">
-        <v>424.0579464067199</v>
+        <v>28.582487794773</v>
       </c>
       <c r="S2">
-        <v>0.01296917953503858</v>
+        <v>0.001725483005872717</v>
       </c>
       <c r="T2">
-        <v>0.01296917953503858</v>
+        <v>0.001725483005872717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H3">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>2302.376719425778</v>
+        <v>788.796712240017</v>
       </c>
       <c r="R3">
-        <v>20721.39047483201</v>
+        <v>7099.170410160154</v>
       </c>
       <c r="S3">
-        <v>0.6337328083600701</v>
+        <v>0.4285665399904731</v>
       </c>
       <c r="T3">
-        <v>0.63373280836007</v>
+        <v>0.428566539990473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H4">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>337.1460051131014</v>
+        <v>115.506579846063</v>
       </c>
       <c r="R4">
-        <v>3034.314046017912</v>
+        <v>1039.559218614567</v>
       </c>
       <c r="S4">
-        <v>0.09279996746188086</v>
+        <v>0.06275667038492656</v>
       </c>
       <c r="T4">
-        <v>0.09279996746188085</v>
+        <v>0.06275667038492656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>0.6351856915733333</v>
+        <v>0.1249645474537778</v>
       </c>
       <c r="R5">
-        <v>5.716671224160001</v>
+        <v>1.124680927084</v>
       </c>
       <c r="S5">
-        <v>0.0001748358592903495</v>
+        <v>6.789534349307072E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001748358592903495</v>
+        <v>6.789534349307071E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>31.03804763156933</v>
@@ -818,10 +818,10 @@
         <v>279.342428684124</v>
       </c>
       <c r="S6">
-        <v>0.008543271361983623</v>
+        <v>0.0168634940728222</v>
       </c>
       <c r="T6">
-        <v>0.008543271361983623</v>
+        <v>0.0168634940728222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>4.545022401070668</v>
+        <v>4.545022401070667</v>
       </c>
       <c r="R7">
-        <v>40.90520160963601</v>
+        <v>40.905201609636</v>
       </c>
       <c r="S7">
-        <v>0.001251024554751539</v>
+        <v>0.002469387225353131</v>
       </c>
       <c r="T7">
-        <v>0.001251024554751539</v>
+        <v>0.002469387225353131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H8">
         <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>15.96251151592</v>
+        <v>3.140417131991334</v>
       </c>
       <c r="R8">
-        <v>143.66260364328</v>
+        <v>28.263754187922</v>
       </c>
       <c r="S8">
-        <v>0.004393706367039231</v>
+        <v>0.00170624152395656</v>
       </c>
       <c r="T8">
-        <v>0.00439370636703923</v>
+        <v>0.00170624152395656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H9">
         <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>780.000556252138</v>
       </c>
       <c r="R9">
-        <v>7020.005006269242</v>
+        <v>7020.005006269243</v>
       </c>
       <c r="S9">
-        <v>0.2146963782535846</v>
+        <v>0.4237874402827214</v>
       </c>
       <c r="T9">
-        <v>0.2146963782535846</v>
+        <v>0.4237874402827213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H10">
         <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
         <v>114.218524408982</v>
@@ -1066,10 +1066,10 @@
         <v>1027.966719680838</v>
       </c>
       <c r="S10">
-        <v>0.03143882824636111</v>
+        <v>0.06205684817038145</v>
       </c>
       <c r="T10">
-        <v>0.0314388282463611</v>
+        <v>0.06205684817038145</v>
       </c>
     </row>
   </sheetData>
